--- a/Output_testing/R1_201907/Country/HKD/MN/BRUNEI_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BRUNEI_201907_HKD_MN.xlsx
@@ -810,136 +810,439 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>81.68810999999999</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>50.56873218562374</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>42.787008</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>26.93918511734806</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>19.663953</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>13.60958188280156</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>12.843274</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>19.88756233641463</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-4.059396895110689</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>5.999607</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>3.714035244566113</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>8.099627</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>5.099616947613409</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>13.849863</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>9.585602882802034</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>10.873902</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>16.83802773849282</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>576.8931110534268</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>0.779955</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.4828283517863024</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>15.228272</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>9.587892624446379</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>15.676961</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>10.85015227624815</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>5.376072</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>8.324743910707912</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-7.30029697648863</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>19.320369</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>11.96020529411719</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>24.808703</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>15.61984055155967</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>26.668294</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>18.45734328533158</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>4.900251</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>7.587944259896511</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-63.47524486357808</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>3.672038</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.273161984007629</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>4.665419</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.937400672909704</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>6.224214</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>4.307829157701906</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>4.039929</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>6.255752218802558</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>16.71261584436272</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>2.717045</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.681976984671185</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>2.209704</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.39125467970428</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>3.076516</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.129281758136278</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>2.237409</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.464584728127353</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>73.04054069731021</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>3.211185</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.987872583457889</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1.884231</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.186333190506003</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2.58628</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.789985433338456</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1.756903</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.720530445082294</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>12.28025215561868</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>TAPS, COCKS, VALVES AND SIMILAR APPLIANCES, FOR PIPES, BOILER SHELLS, TANKS, VATS AND THE LIKE</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>2.268253</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.428117793606417</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1.849889</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.280323230003342</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>1.637822</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.536135810927282</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>224.8177411805771</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.1218896213735038</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>2.066155</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.300874602546041</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>2.112197</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.461868731282455</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>1.537814</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.381275349790958</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-1.968204022594666</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>2.15447</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.333716944019892</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>2.115326</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.331833221372698</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1.553074</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.074895153230389</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1.262218</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.954520253725382</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>109.7376571929918</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>41.760945</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>25.85196356634476</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>52.695447</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>33.17765059838733</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>51.224851</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>35.45313620912385</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>18.113834</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>28.04892294803231</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-19.04043125913619</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1274,539 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>19.295554</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>79.32676430382475</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>24.808703</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>89.28851437019189</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>26.668294</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>87.93017363446042</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>4.900251</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>67.01793663710278</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-63.47524486357808</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>3.211185</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>13.20163782967711</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>1.884231</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>6.781498682952552</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>2.58628</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>8.527431468519595</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>1.756903</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>24.02815976804776</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>12.28025215561868</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT, PRESERVED, AND FRUIT PREPARATIONS (EXCLUDING FRUIT JUICES)</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>0.814515</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>3.348586903849966</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>1.533686887787442</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>1.385442190620215</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>6.054363806697348</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>5.353768533282555</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>1.344618911722309</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.3955749163681709</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0.9913895785033076</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>1.932110204667765</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-23.06774926075379</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.4819409655617438</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.222088448406248</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.2129549840919293</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.6739470858948147</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>5.974193548387108</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.2308026210605084</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.2735285871564652</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-71.42857142857143</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.798145348688778</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.375093414129327</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.5566893276373445</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>WIRE PRODUCTS (EXCLUDING INSULATED ELECTRICAL WIRING) AND FENCING GRILLS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.2307874255044363</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.1651161951066877</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.1166102018954484</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>1.498305736675347</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.05614565276447518</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1838,445 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>81.68810999999999</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>59.53308930250901</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>42.787008</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>32.65105359970836</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>19.663953</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>17.22533675443028</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>12.843274</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>22.42678047253893</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-4.059396895110689</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>5.999607</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>4.372425060525432</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>8.099627</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>6.180879843588151</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>13.849863</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>12.13227849851573</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>10.873902</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>18.98788525682019</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>576.8931110534268</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>0.779955</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.5684196961704514</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>15.228272</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>11.62079679193595</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>15.676961</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>13.73278976567275</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>5.376072</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>9.387636403970149</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-7.30029697648863</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>3.55481</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>2.590693078631053</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>4.603712</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.513123592788272</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>6.159627</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>5.395743641000418</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>3.990651</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.96842985048189</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>16.85883734761413</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>2.717045</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.980142307417023</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>2.209704</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.68623998535934</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>3.076516</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.694983258472639</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>2.237409</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.906938407627436</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>73.04054069731021</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>TAPS, COCKS, VALVES AND SIMILAR APPLIANCES, FOR PIPES, BOILER SHELLS, TANKS, VATS AND THE LIKE</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>2.268253</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.730919121072903</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>1.849889</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.62047585159079</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.637822</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.859946338222999</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>224.8177411805771</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.1434970860578696</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>2.066155</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.576696777916918</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>2.112197</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.850253843502238</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1.537814</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.68531349448723</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-1.968204022594666</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>2.15447</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.57014594791796</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>2.115326</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.614219498751973</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1.553074</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.360470229691357</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>1.262218</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.204070861875807</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>109.7376571929918</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.2869300390141334</v>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.2408074847400213</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1.488101</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.30355482692643</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>1.214372</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.120522715313716</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>410.0003359763472</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MECHANICAL HANDLING EQUIPMENT, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>0.717175</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.5226665584566333</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>2.216919</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.69174580038903</v>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.2313372460157926</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>1.202552</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.099882764380222</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>457.123928654158</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>38.974701</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>28.40418703739855</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>49.132731</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>37.49351750374908</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>48.462878</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>42.45277608418157</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>15.091492</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>26.35259343428143</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-28.39932129836535</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2308,493 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>13.76042</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>47.96173383904463</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>27.294875</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>51.78172836305891</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>24.006233</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>47.18995824104686</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>15.540595</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>73.17476332001625</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>153.4091520576068</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>4.590871</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>16.0014107848008</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>6.850147</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>12.99556972512323</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>6.812524</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>13.39163554215814</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>2.570864</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>12.10522278766999</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>44.7717514028849</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>1.538824082496683</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>2.943758</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>5.584670276840673</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>1.681608</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>3.305600312127702</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1.220118</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>5.745072558193016</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>19.04658759615496</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>4.793342</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>16.70712036431402</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>3.921072</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>7.438754901643481</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>3.813149</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>7.495650903533662</v>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>1.854202935796595</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-63.12560865982471</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>1.01003</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.520444145560256</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>1.005259</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1.907099720094715</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>0.522261</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>1.026628158650604</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.487924060122868</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>21.91358024691359</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.8209244312092449</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, CRUDE, REFINED OR FRACTIONATED, OTHER THAN `SOFT'</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.936937442715945</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.7554604811842821</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>76.56212171233629</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.1122639777871452</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>0.784882</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.489017499477627</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.609521499160712</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.037970382720863</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.3624168448412736</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.3373638426838956</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.5356762047464495</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-13.30869465823363</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.7933590641111</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.5261650980180721</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.4917430562181729</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.4984263084185001</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-31.9992805108373</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>3.536631</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>12.32687335916449</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>9.443025</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>17.91457757090202</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>13.127698</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>25.80561141854594</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>0.512423</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>2.41280541348209</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-95.94111554905156</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
